--- a/data/trans_orig/P36S3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36S3-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79AE5220-7420-4754-9D05-30817E0C9B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{613A367C-0A46-4F0C-B11C-808F679E2363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{785614D0-2382-4935-8762-9CDBF5EE58CA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B42A0BDB-A078-4148-81DF-9B8855127B31}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="680">
   <si>
     <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2007 (Tasa respuesta: 6,39%)</t>
   </si>
@@ -91,7 +91,7 @@
     <t>9,04%</t>
   </si>
   <si>
-    <t>36,88%</t>
+    <t>36,9%</t>
   </si>
   <si>
     <t>Alimentos como huevos, queso, jamón, etc</t>
@@ -112,10 +112,10 @@
     <t>27,64%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
   </si>
   <si>
     <t>Fruta y/o zumo</t>
@@ -136,10 +136,10 @@
     <t>63,32%</t>
   </si>
   <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
   </si>
   <si>
     <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
@@ -163,70 +163,70 @@
     <t>6,42%</t>
   </si>
   <si>
-    <t>20,09%</t>
+    <t>21,11%</t>
   </si>
   <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>21,41%</t>
+    <t>21,92%</t>
   </si>
   <si>
     <t>6,67%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>19,67%</t>
+    <t>18,72%</t>
   </si>
   <si>
     <t>3,62%</t>
   </si>
   <si>
-    <t>14,88%</t>
+    <t>15,07%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
   </si>
   <si>
     <t>87,37%</t>
   </si>
   <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>82,86%</t>
   </si>
   <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
   </si>
   <si>
     <t>85,24%</t>
   </si>
   <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
   </si>
   <si>
     <t>6,36%</t>
@@ -241,13 +241,13 @@
     <t>6,58%</t>
   </si>
   <si>
-    <t>22,14%</t>
+    <t>22,51%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>9,64%</t>
+    <t>11,09%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -256,1786 +256,1798 @@
     <t>8,69%</t>
   </si>
   <si>
-    <t>37,44%</t>
+    <t>36,8%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>19,14%</t>
+    <t>19,87%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>16,22%</t>
+    <t>16,41%</t>
   </si>
   <si>
     <t>34,44%</t>
   </si>
   <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
   </si>
   <si>
     <t>8,39%</t>
   </si>
   <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2012 (Tasa respuesta: 7,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2015 (Tasa respuesta: 15,28%)</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
     <t>24,72%</t>
   </si>
   <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
   </si>
   <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2012 (Tasa respuesta: 7,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2015 (Tasa respuesta: 15,28%)</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
   </si>
   <si>
     <t>20,97%</t>
   </si>
   <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
     <t>16,21%</t>
   </si>
   <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
   </si>
   <si>
     <t>34,31%</t>
   </si>
   <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
   </si>
   <si>
     <t>29,45%</t>
   </si>
   <si>
-    <t>33,27%</t>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
   </si>
   <si>
     <t>31,76%</t>
   </si>
   <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
   </si>
   <si>
     <t>50,21%</t>
   </si>
   <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
   </si>
   <si>
     <t>52,84%</t>
   </si>
   <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
   </si>
   <si>
     <t>51,59%</t>
   </si>
   <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
   </si>
   <si>
     <t>0,73%</t>
@@ -2044,7 +2056,7 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>2,38%</t>
+    <t>2,23%</t>
   </si>
   <si>
     <t>0,89%</t>
@@ -2053,10 +2065,10 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -2477,7 +2489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92761C9-60A0-42F5-852B-1F7751DD395E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D789432C-4F67-4BB1-88D4-B0A1EF02EC93}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4195,7 +4207,7 @@
         <v>146</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>147</v>
@@ -4249,7 +4261,7 @@
         <v>154</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="H36" s="7">
         <v>12</v>
@@ -4258,10 +4270,10 @@
         <v>12985</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>22</v>
@@ -4273,13 +4285,13 @@
         <v>15935</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,7 +4449,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4449,13 +4461,13 @@
         <v>1571</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H40" s="7">
         <v>4</v>
@@ -4464,13 +4476,13 @@
         <v>4021</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M40" s="7">
         <v>5</v>
@@ -4479,13 +4491,13 @@
         <v>5592</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4512,13 @@
         <v>15529</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H41" s="7">
         <v>14</v>
@@ -4515,13 +4527,13 @@
         <v>14112</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M41" s="7">
         <v>29</v>
@@ -4530,13 +4542,13 @@
         <v>29641</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4563,13 @@
         <v>29304</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H42" s="7">
         <v>55</v>
@@ -4566,13 +4578,13 @@
         <v>60287</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M42" s="7">
         <v>83</v>
@@ -4581,13 +4593,13 @@
         <v>89590</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,37 +4620,37 @@
         <v>14</v>
       </c>
       <c r="G43" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H43" s="7">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7">
-        <v>0</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L43" s="7" t="s">
+      <c r="M43" s="7">
+        <v>0</v>
+      </c>
+      <c r="N43" s="7">
+        <v>0</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="M43" s="7">
-        <v>0</v>
-      </c>
-      <c r="N43" s="7">
-        <v>0</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,7 +4671,7 @@
         <v>14</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -4668,13 +4680,13 @@
         <v>976</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -4683,13 +4695,13 @@
         <v>976</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,7 +4757,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4757,13 +4769,13 @@
         <v>4958</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H46" s="7">
         <v>9</v>
@@ -4772,13 +4784,13 @@
         <v>8081</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M46" s="7">
         <v>14</v>
@@ -4787,13 +4799,13 @@
         <v>13039</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,13 +4820,13 @@
         <v>15148</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H47" s="7">
         <v>13</v>
@@ -4823,13 +4835,13 @@
         <v>13030</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M47" s="7">
         <v>28</v>
@@ -4838,7 +4850,7 @@
         <v>28178</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>106</v>
+        <v>209</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>210</v>
@@ -5083,10 +5095,10 @@
         <v>231</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>49</v>
+        <v>232</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M52" s="7">
         <v>27</v>
@@ -5095,13 +5107,13 @@
         <v>27310</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5128,13 @@
         <v>52589</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H53" s="7">
         <v>34</v>
@@ -5131,13 +5143,13 @@
         <v>34236</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M53" s="7">
         <v>86</v>
@@ -5146,13 +5158,13 @@
         <v>86825</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,13 +5179,13 @@
         <v>137933</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H54" s="7">
         <v>168</v>
@@ -5182,13 +5194,13 @@
         <v>179561</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M54" s="7">
         <v>296</v>
@@ -5197,13 +5209,13 @@
         <v>317494</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,10 +5299,10 @@
         <v>259</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M56" s="7">
         <v>6</v>
@@ -5299,13 +5311,13 @@
         <v>5783</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,7 +5373,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -5385,7 +5397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293D06CC-16E7-4905-94EE-A0ACA202757E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A40C6E0-ADBC-4B63-8D7B-17B0A32C6A16}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5402,7 +5414,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5507,39 +5519,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,39 +5564,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,39 +5609,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,39 +5654,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,39 +5699,39 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,39 +5744,39 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,7 +5799,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5802,7 +5814,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5817,7 +5829,7 @@
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,13 +5844,13 @@
         <v>8727</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -5847,13 +5859,13 @@
         <v>6701</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -5862,13 +5874,13 @@
         <v>15427</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,13 +5895,13 @@
         <v>18663</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -5898,13 +5910,13 @@
         <v>15306</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M12" s="7">
         <v>28</v>
@@ -5913,13 +5925,13 @@
         <v>33970</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,7 +5952,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5955,7 +5967,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5970,7 +5982,7 @@
         <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,7 +6003,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6006,7 +6018,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6021,7 +6033,7 @@
         <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6101,13 @@
         <v>952</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6119,13 +6131,13 @@
         <v>952</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6152,13 @@
         <v>16204</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -6155,13 +6167,13 @@
         <v>2174</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -6170,13 +6182,13 @@
         <v>18378</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6191,13 +6203,13 @@
         <v>12716</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -6206,10 +6218,10 @@
         <v>19349</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>22</v>
@@ -6221,13 +6233,13 @@
         <v>32065</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6248,7 +6260,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6299,7 +6311,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6397,13 +6409,13 @@
         <v>5290</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>221</v>
+        <v>311</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -6412,13 +6424,13 @@
         <v>4128</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -6427,13 +6439,13 @@
         <v>9418</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6448,13 +6460,13 @@
         <v>21543</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>320</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -6463,13 +6475,13 @@
         <v>4462</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -6478,13 +6490,13 @@
         <v>26005</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,13 +6511,13 @@
         <v>43841</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H24" s="7">
         <v>55</v>
@@ -6514,13 +6526,13 @@
         <v>61070</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="M24" s="7">
         <v>96</v>
@@ -6529,13 +6541,13 @@
         <v>104911</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6556,7 +6568,7 @@
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6571,7 +6583,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6586,7 +6598,7 @@
         <v>14</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>333</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6607,7 +6619,7 @@
         <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6622,7 +6634,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6637,7 +6649,7 @@
         <v>14</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>333</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6756,13 +6768,13 @@
         <v>2387</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>281</v>
+        <v>340</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -6771,13 +6783,13 @@
         <v>2910</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -6786,13 +6798,13 @@
         <v>5297</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6807,10 +6819,10 @@
         <v>7069</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>272</v>
+        <v>347</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>22</v>
@@ -6822,13 +6834,13 @@
         <v>8481</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>343</v>
+        <v>62</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -6837,13 +6849,13 @@
         <v>15550</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7028,13 +7040,13 @@
         <v>951</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -7043,13 +7055,13 @@
         <v>951</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7064,13 +7076,13 @@
         <v>4026</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>12</v>
+        <v>358</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -7094,13 +7106,13 @@
         <v>4026</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7115,13 +7127,13 @@
         <v>9950</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>22</v>
+        <v>365</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -7130,10 +7142,10 @@
         <v>12334</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>22</v>
@@ -7145,13 +7157,13 @@
         <v>22284</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7202,7 +7214,7 @@
         <v>14</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7253,7 +7265,7 @@
         <v>14</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7309,7 +7321,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7327,7 +7339,7 @@
         <v>14</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -7336,13 +7348,13 @@
         <v>3138</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -7351,13 +7363,13 @@
         <v>3138</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>368</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7372,13 +7384,13 @@
         <v>25463</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="H41" s="7">
         <v>17</v>
@@ -7387,13 +7399,13 @@
         <v>20267</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="M41" s="7">
         <v>43</v>
@@ -7402,13 +7414,13 @@
         <v>45730</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7423,13 +7435,13 @@
         <v>54717</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="H42" s="7">
         <v>47</v>
@@ -7438,13 +7450,13 @@
         <v>53792</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>302</v>
+        <v>388</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="M42" s="7">
         <v>92</v>
@@ -7453,13 +7465,13 @@
         <v>108509</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7480,7 +7492,7 @@
         <v>14</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -7489,13 +7501,13 @@
         <v>972</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -7504,13 +7516,13 @@
         <v>972</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7525,13 +7537,13 @@
         <v>953</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -7546,7 +7558,7 @@
         <v>14</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -7555,13 +7567,13 @@
         <v>953</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7617,7 +7629,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7635,7 +7647,7 @@
         <v>14</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -7644,13 +7656,13 @@
         <v>3141</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>317</v>
+        <v>404</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>46</v>
+        <v>405</v>
       </c>
       <c r="M46" s="7">
         <v>3</v>
@@ -7659,13 +7671,13 @@
         <v>3141</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7680,13 +7692,13 @@
         <v>2287</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -7701,7 +7713,7 @@
         <v>14</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="M47" s="7">
         <v>2</v>
@@ -7710,13 +7722,13 @@
         <v>2287</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7731,13 +7743,13 @@
         <v>59812</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="H48" s="7">
         <v>49</v>
@@ -7746,13 +7758,13 @@
         <v>56035</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>408</v>
+        <v>113</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="M48" s="7">
         <v>106</v>
@@ -7761,13 +7773,13 @@
         <v>115848</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7788,7 +7800,7 @@
         <v>14</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -7803,7 +7815,7 @@
         <v>14</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -7818,7 +7830,7 @@
         <v>14</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7833,13 +7845,13 @@
         <v>4713</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -7854,7 +7866,7 @@
         <v>14</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="M50" s="7">
         <v>4</v>
@@ -7863,13 +7875,13 @@
         <v>4713</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7937,13 +7949,13 @@
         <v>6242</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="H52" s="7">
         <v>10</v>
@@ -7952,13 +7964,13 @@
         <v>11357</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>424</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="M52" s="7">
         <v>15</v>
@@ -7967,13 +7979,13 @@
         <v>17600</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>428</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7988,13 +8000,13 @@
         <v>80637</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>430</v>
+        <v>103</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="H53" s="7">
         <v>30</v>
@@ -8003,13 +8015,13 @@
         <v>36513</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="M53" s="7">
         <v>110</v>
@@ -8018,13 +8030,13 @@
         <v>117150</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8039,13 +8051,13 @@
         <v>206770</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="H54" s="7">
         <v>201</v>
@@ -8054,13 +8066,13 @@
         <v>226368</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M54" s="7">
         <v>386</v>
@@ -8069,13 +8081,13 @@
         <v>433137</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8096,7 +8108,7 @@
         <v>14</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="H55" s="7">
         <v>1</v>
@@ -8105,13 +8117,13 @@
         <v>972</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="M55" s="7">
         <v>1</v>
@@ -8120,13 +8132,13 @@
         <v>972</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8141,13 +8153,13 @@
         <v>5666</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -8162,7 +8174,7 @@
         <v>14</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="M56" s="7">
         <v>5</v>
@@ -8171,13 +8183,13 @@
         <v>5666</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>457</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8233,7 +8245,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -8257,7 +8269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4F45A8-5799-4A00-9C3C-C91DDCCEAE31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1371FA8-D41F-41B6-872F-56CDF58B6CD1}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8274,7 +8286,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8387,7 +8399,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -8402,7 +8414,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -8411,13 +8423,13 @@
         <v>2054</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8432,13 +8444,13 @@
         <v>4445</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -8447,13 +8459,13 @@
         <v>4006</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -8462,13 +8474,13 @@
         <v>8451</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>469</v>
+        <v>292</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8483,13 +8495,13 @@
         <v>10668</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -8498,13 +8510,13 @@
         <v>17530</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M6" s="7">
         <v>26</v>
@@ -8513,13 +8525,13 @@
         <v>28198</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8540,7 +8552,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>400</v>
+        <v>482</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -8555,7 +8567,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -8591,7 +8603,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>400</v>
+        <v>482</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8606,7 +8618,7 @@
         <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8689,13 +8701,13 @@
         <v>1054</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -8719,13 +8731,13 @@
         <v>1054</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8746,7 +8758,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -8776,7 +8788,7 @@
         <v>14</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>485</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8791,10 +8803,10 @@
         <v>18362</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>22</v>
@@ -8809,7 +8821,7 @@
         <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>38</v>
@@ -8821,10 +8833,10 @@
         <v>41177</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>22</v>
@@ -8848,7 +8860,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -8878,7 +8890,7 @@
         <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>485</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8899,7 +8911,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8929,7 +8941,7 @@
         <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>485</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9003,7 +9015,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -9012,13 +9024,13 @@
         <v>920</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -9027,13 +9039,13 @@
         <v>919</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>145</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9048,13 +9060,13 @@
         <v>9364</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -9063,13 +9075,13 @@
         <v>4571</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>497</v>
+        <v>195</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -9078,13 +9090,13 @@
         <v>13935</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9099,13 +9111,13 @@
         <v>19846</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -9114,13 +9126,13 @@
         <v>21077</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="M18" s="7">
         <v>43</v>
@@ -9129,13 +9141,13 @@
         <v>40922</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9156,7 +9168,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -9171,7 +9183,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -9186,7 +9198,7 @@
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>511</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9207,7 +9219,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -9222,7 +9234,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -9237,7 +9249,7 @@
         <v>14</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>511</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9305,13 +9317,13 @@
         <v>55027</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H22" s="7">
         <v>72</v>
@@ -9320,13 +9332,13 @@
         <v>78783</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="M22" s="7">
         <v>125</v>
@@ -9335,13 +9347,13 @@
         <v>133811</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9356,13 +9368,13 @@
         <v>36583</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -9371,13 +9383,13 @@
         <v>24705</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M23" s="7">
         <v>58</v>
@@ -9386,13 +9398,13 @@
         <v>61288</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9407,13 +9419,13 @@
         <v>35844</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>204</v>
+        <v>533</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -9422,13 +9434,13 @@
         <v>30224</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>350</v>
+        <v>535</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="M24" s="7">
         <v>60</v>
@@ -9437,13 +9449,13 @@
         <v>66069</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9458,13 +9470,13 @@
         <v>2665</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -9479,7 +9491,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -9488,13 +9500,13 @@
         <v>2665</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9515,7 +9527,7 @@
         <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>309</v>
+        <v>546</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -9530,7 +9542,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -9545,7 +9557,7 @@
         <v>14</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9634,7 +9646,7 @@
         <v>14</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -9649,7 +9661,7 @@
         <v>14</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>485</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9664,13 +9676,13 @@
         <v>7540</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>543</v>
+        <v>503</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -9679,13 +9691,13 @@
         <v>7098</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -9694,13 +9706,13 @@
         <v>14638</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9715,13 +9727,13 @@
         <v>12030</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -9730,13 +9742,13 @@
         <v>8785</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="M30" s="7">
         <v>21</v>
@@ -9745,13 +9757,13 @@
         <v>20816</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9787,7 +9799,7 @@
         <v>14</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -9802,7 +9814,7 @@
         <v>14</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>485</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9838,7 +9850,7 @@
         <v>14</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9853,7 +9865,7 @@
         <v>14</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>485</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9921,13 +9933,13 @@
         <v>1912</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>561</v>
+        <v>236</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -9936,13 +9948,13 @@
         <v>1194</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -9951,13 +9963,13 @@
         <v>3106</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9972,13 +9984,13 @@
         <v>6107</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -9987,13 +9999,13 @@
         <v>1793</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="M35" s="7">
         <v>8</v>
@@ -10002,13 +10014,13 @@
         <v>7900</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>223</v>
+        <v>576</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10023,13 +10035,13 @@
         <v>13178</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
@@ -10038,13 +10050,13 @@
         <v>28323</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>346</v>
+        <v>581</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="M36" s="7">
         <v>40</v>
@@ -10053,13 +10065,13 @@
         <v>41500</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10080,7 +10092,7 @@
         <v>14</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -10095,7 +10107,7 @@
         <v>14</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -10131,7 +10143,7 @@
         <v>14</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -10146,7 +10158,7 @@
         <v>14</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -10217,7 +10229,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -10229,13 +10241,13 @@
         <v>14430</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>583</v>
+        <v>151</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>203</v>
+        <v>589</v>
       </c>
       <c r="H40" s="7">
         <v>15</v>
@@ -10244,13 +10256,13 @@
         <v>15974</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>233</v>
+        <v>591</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="M40" s="7">
         <v>28</v>
@@ -10259,13 +10271,13 @@
         <v>30404</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>588</v>
+        <v>44</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10280,13 +10292,13 @@
         <v>47773</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="H41" s="7">
         <v>41</v>
@@ -10295,13 +10307,13 @@
         <v>42414</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="M41" s="7">
         <v>84</v>
@@ -10310,13 +10322,13 @@
         <v>90187</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10331,13 +10343,13 @@
         <v>90214</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="H42" s="7">
         <v>89</v>
@@ -10346,13 +10358,13 @@
         <v>94498</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>603</v>
+        <v>273</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="M42" s="7">
         <v>169</v>
@@ -10361,13 +10373,13 @@
         <v>184712</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>606</v>
+        <v>293</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10382,13 +10394,13 @@
         <v>1072</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>608</v>
+        <v>493</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -10403,7 +10415,7 @@
         <v>14</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -10412,13 +10424,13 @@
         <v>1072</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10439,23 +10451,23 @@
         <v>14</v>
       </c>
       <c r="G44" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7">
-        <v>0</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>609</v>
-      </c>
       <c r="M44" s="7">
         <v>0</v>
       </c>
@@ -10469,7 +10481,7 @@
         <v>14</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>612</v>
+        <v>457</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10525,7 +10537,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -10537,13 +10549,13 @@
         <v>1963</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -10552,13 +10564,13 @@
         <v>1039</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M46" s="7">
         <v>3</v>
@@ -10567,13 +10579,13 @@
         <v>3003</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>221</v>
+        <v>619</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10588,13 +10600,13 @@
         <v>63587</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H47" s="7">
         <v>71</v>
@@ -10603,13 +10615,13 @@
         <v>81619</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="M47" s="7">
         <v>131</v>
@@ -10618,13 +10630,13 @@
         <v>145206</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10639,13 +10651,13 @@
         <v>56524</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H48" s="7">
         <v>69</v>
@@ -10654,13 +10666,13 @@
         <v>74966</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="M48" s="7">
         <v>123</v>
@@ -10669,13 +10681,13 @@
         <v>131491</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -10696,7 +10708,7 @@
         <v>14</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
@@ -10705,13 +10717,13 @@
         <v>996</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>637</v>
+        <v>263</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -10720,13 +10732,13 @@
         <v>996</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>402</v>
+        <v>640</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -10747,7 +10759,7 @@
         <v>14</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -10762,7 +10774,7 @@
         <v>14</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -10777,7 +10789,7 @@
         <v>14</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10845,13 +10857,13 @@
         <v>75424</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="H52" s="7">
         <v>91</v>
@@ -10860,13 +10872,13 @@
         <v>98928</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>318</v>
+        <v>647</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="M52" s="7">
         <v>163</v>
@@ -10875,13 +10887,13 @@
         <v>174352</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -10896,13 +10908,13 @@
         <v>175399</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="H53" s="7">
         <v>153</v>
@@ -10911,13 +10923,13 @@
         <v>166206</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>338</v>
+        <v>656</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="M53" s="7">
         <v>319</v>
@@ -10926,13 +10938,13 @@
         <v>341605</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -10947,13 +10959,13 @@
         <v>256667</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="H54" s="7">
         <v>278</v>
@@ -10962,13 +10974,13 @@
         <v>298218</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="M54" s="7">
         <v>518</v>
@@ -10977,13 +10989,13 @@
         <v>554885</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -10998,13 +11010,13 @@
         <v>3737</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="H55" s="7">
         <v>1</v>
@@ -11013,13 +11025,13 @@
         <v>996</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="M55" s="7">
         <v>4</v>
@@ -11028,13 +11040,13 @@
         <v>4733</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -11055,7 +11067,7 @@
         <v>14</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -11070,7 +11082,7 @@
         <v>14</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -11085,7 +11097,7 @@
         <v>14</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -11141,7 +11153,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36S3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36S3-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{613A367C-0A46-4F0C-B11C-808F679E2363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36964AFB-FD2E-4753-A144-EE35B2C1A7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B42A0BDB-A078-4148-81DF-9B8855127B31}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{236FAAD6-AB6E-4614-BE6D-40C8205D8AB3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="678">
   <si>
     <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2007 (Tasa respuesta: 6,39%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>45,95%</t>
+    <t>45,65%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,7 +91,7 @@
     <t>9,04%</t>
   </si>
   <si>
-    <t>36,9%</t>
+    <t>36,8%</t>
   </si>
   <si>
     <t>Alimentos como huevos, queso, jamón, etc</t>
@@ -100,7 +100,7 @@
     <t>22,57%</t>
   </si>
   <si>
-    <t>59,91%</t>
+    <t>63,55%</t>
   </si>
   <si>
     <t>48,11%</t>
@@ -115,7 +115,7 @@
     <t>9,0%</t>
   </si>
   <si>
-    <t>64,5%</t>
+    <t>62,43%</t>
   </si>
   <si>
     <t>Fruta y/o zumo</t>
@@ -124,7 +124,7 @@
     <t>66,15%</t>
   </si>
   <si>
-    <t>32,22%</t>
+    <t>32,13%</t>
   </si>
   <si>
     <t>88,85%</t>
@@ -136,10 +136,10 @@
     <t>63,32%</t>
   </si>
   <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
   </si>
   <si>
     <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
@@ -163,34 +163,34 @@
     <t>6,42%</t>
   </si>
   <si>
-    <t>21,11%</t>
+    <t>20,98%</t>
   </si>
   <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>21,92%</t>
+    <t>21,35%</t>
   </si>
   <si>
     <t>6,67%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>18,72%</t>
+    <t>18,85%</t>
   </si>
   <si>
     <t>3,62%</t>
   </si>
   <si>
-    <t>15,07%</t>
+    <t>18,3%</t>
   </si>
   <si>
     <t>4,98%</t>
@@ -199,34 +199,34 @@
     <t>1,58%</t>
   </si>
   <si>
-    <t>13,6%</t>
+    <t>14,25%</t>
   </si>
   <si>
     <t>87,37%</t>
   </si>
   <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
   </si>
   <si>
     <t>82,86%</t>
   </si>
   <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
   </si>
   <si>
     <t>85,24%</t>
   </si>
   <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
   </si>
   <si>
     <t>6,36%</t>
@@ -241,13 +241,13 @@
     <t>6,58%</t>
   </si>
   <si>
-    <t>22,51%</t>
+    <t>20,6%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>11,09%</t>
+    <t>11,27%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -256,1798 +256,1798 @@
     <t>8,69%</t>
   </si>
   <si>
-    <t>36,8%</t>
+    <t>37,67%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>19,87%</t>
+    <t>18,45%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>16,41%</t>
+    <t>19,09%</t>
   </si>
   <si>
     <t>34,44%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
   </si>
   <si>
     <t>8,39%</t>
   </si>
   <si>
-    <t>25,22%</t>
+    <t>28,07%</t>
   </si>
   <si>
     <t>16,7%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
   </si>
   <si>
     <t>56,87%</t>
   </si>
   <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
   </si>
   <si>
     <t>87,92%</t>
   </si>
   <si>
-    <t>71,24%</t>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2012 (Tasa respuesta: 7,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
   </si>
   <si>
     <t>96,34%</t>
   </si>
   <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2016 (Tasa respuesta: 15,28%)</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
   </si>
   <si>
     <t>9,4%</t>
   </si>
   <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2012 (Tasa respuesta: 7,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2015 (Tasa respuesta: 15,28%)</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
     <t>14,75%</t>
   </si>
   <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
   </si>
   <si>
     <t>17,53%</t>
   </si>
   <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
   </si>
   <si>
     <t>16,21%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
+    <t>14,03%</t>
   </si>
   <si>
     <t>34,31%</t>
   </si>
   <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
   </si>
   <si>
     <t>29,45%</t>
   </si>
   <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
   </si>
   <si>
     <t>31,76%</t>
   </si>
   <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
+    <t>28,92%</t>
   </si>
   <si>
     <t>50,21%</t>
   </si>
   <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
   </si>
   <si>
     <t>52,84%</t>
   </si>
   <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
   </si>
   <si>
     <t>51,59%</t>
   </si>
   <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
   </si>
   <si>
     <t>0,73%</t>
@@ -2056,19 +2056,13 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
+    <t>2,07%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
     <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -2489,7 +2483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D789432C-4F67-4BB1-88D4-B0A1EF02EC93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A842D9C1-A109-4D26-8B08-2FBF34FFBDCE}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4207,10 +4201,10 @@
         <v>146</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -4219,13 +4213,13 @@
         <v>2065</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -4234,13 +4228,13 @@
         <v>5061</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,13 +4249,13 @@
         <v>2950</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="H36" s="7">
         <v>12</v>
@@ -4270,10 +4264,10 @@
         <v>12985</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>22</v>
@@ -4285,13 +4279,13 @@
         <v>15935</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,7 +4443,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4461,13 +4455,13 @@
         <v>1571</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H40" s="7">
         <v>4</v>
@@ -4476,13 +4470,13 @@
         <v>4021</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M40" s="7">
         <v>5</v>
@@ -4491,13 +4485,13 @@
         <v>5592</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4506,13 @@
         <v>15529</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H41" s="7">
         <v>14</v>
@@ -4527,13 +4521,13 @@
         <v>14112</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M41" s="7">
         <v>29</v>
@@ -4542,13 +4536,13 @@
         <v>29641</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4557,13 @@
         <v>29304</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H42" s="7">
         <v>55</v>
@@ -4578,13 +4572,13 @@
         <v>60287</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M42" s="7">
         <v>83</v>
@@ -4593,13 +4587,13 @@
         <v>89590</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,7 +4614,7 @@
         <v>14</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -4635,7 +4629,7 @@
         <v>14</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -4650,7 +4644,7 @@
         <v>14</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,7 +4665,7 @@
         <v>14</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -4680,13 +4674,13 @@
         <v>976</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -4695,13 +4689,13 @@
         <v>976</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,7 +4751,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4769,13 +4763,13 @@
         <v>4958</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H46" s="7">
         <v>9</v>
@@ -4784,13 +4778,13 @@
         <v>8081</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M46" s="7">
         <v>14</v>
@@ -4799,13 +4793,13 @@
         <v>13039</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,13 +4814,13 @@
         <v>15148</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H47" s="7">
         <v>13</v>
@@ -4835,13 +4829,13 @@
         <v>13030</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M47" s="7">
         <v>28</v>
@@ -4850,13 +4844,13 @@
         <v>28178</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,13 +4865,13 @@
         <v>54064</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H48" s="7">
         <v>37</v>
@@ -4886,13 +4880,13 @@
         <v>39559</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M48" s="7">
         <v>87</v>
@@ -4901,13 +4895,13 @@
         <v>93623</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,7 +4922,7 @@
         <v>14</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
@@ -4937,13 +4931,13 @@
         <v>1134</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -4952,13 +4946,13 @@
         <v>1134</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,7 +4973,7 @@
         <v>14</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -4994,7 +4988,7 @@
         <v>14</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -5009,7 +5003,7 @@
         <v>14</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5071,13 @@
         <v>12239</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H52" s="7">
         <v>16</v>
@@ -5092,13 +5086,13 @@
         <v>15071</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M52" s="7">
         <v>27</v>
@@ -5107,13 +5101,13 @@
         <v>27310</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,13 +5122,13 @@
         <v>52589</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H53" s="7">
         <v>34</v>
@@ -5143,13 +5137,13 @@
         <v>34236</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M53" s="7">
         <v>86</v>
@@ -5158,13 +5152,13 @@
         <v>86825</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5179,13 +5173,13 @@
         <v>137933</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H54" s="7">
         <v>168</v>
@@ -5194,13 +5188,13 @@
         <v>179561</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M54" s="7">
         <v>296</v>
@@ -5209,13 +5203,13 @@
         <v>317494</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,7 +5230,7 @@
         <v>14</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H55" s="7">
         <v>1</v>
@@ -5245,13 +5239,13 @@
         <v>1134</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M55" s="7">
         <v>1</v>
@@ -5260,13 +5254,13 @@
         <v>1134</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,7 +5281,7 @@
         <v>14</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H56" s="7">
         <v>6</v>
@@ -5296,13 +5290,13 @@
         <v>5783</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M56" s="7">
         <v>6</v>
@@ -5311,13 +5305,13 @@
         <v>5783</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,7 +5367,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -5397,7 +5391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A40C6E0-ADBC-4B63-8D7B-17B0A32C6A16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B932BC7C-30E5-41C8-8BEC-8985E743E45C}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5414,7 +5408,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5519,39 +5513,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,39 +5558,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,39 +5603,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,39 +5648,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,39 +5693,39 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5744,39 +5738,39 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,7 +5793,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5814,7 +5808,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5829,7 +5823,7 @@
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,13 +5838,13 @@
         <v>8727</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -5859,13 +5853,13 @@
         <v>6701</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -5874,13 +5868,13 @@
         <v>15427</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,13 +5889,13 @@
         <v>18663</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -5910,13 +5904,13 @@
         <v>15306</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M12" s="7">
         <v>28</v>
@@ -5925,13 +5919,13 @@
         <v>33970</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,7 +5946,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5967,7 +5961,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5982,7 +5976,7 @@
         <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,7 +5997,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6018,7 +6012,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6033,7 +6027,7 @@
         <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,13 +6095,13 @@
         <v>952</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6131,13 +6125,13 @@
         <v>952</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,13 +6146,13 @@
         <v>16204</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -6167,13 +6161,13 @@
         <v>2174</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -6182,13 +6176,13 @@
         <v>18378</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6203,13 +6197,13 @@
         <v>12716</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -6218,10 +6212,10 @@
         <v>19349</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>22</v>
@@ -6233,13 +6227,13 @@
         <v>32065</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6260,7 +6254,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6311,7 +6305,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6409,13 +6403,13 @@
         <v>5290</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -6424,13 +6418,13 @@
         <v>4128</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -6439,13 +6433,13 @@
         <v>9418</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6460,13 +6454,13 @@
         <v>21543</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>320</v>
+        <v>67</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -6475,13 +6469,13 @@
         <v>4462</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -6490,13 +6484,13 @@
         <v>26005</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6511,13 +6505,13 @@
         <v>43841</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H24" s="7">
         <v>55</v>
@@ -6526,13 +6520,13 @@
         <v>61070</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M24" s="7">
         <v>96</v>
@@ -6541,13 +6535,13 @@
         <v>104911</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6568,7 +6562,7 @@
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6583,7 +6577,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6598,7 +6592,7 @@
         <v>14</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>164</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6619,7 +6613,7 @@
         <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6634,7 +6628,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6649,7 +6643,7 @@
         <v>14</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>164</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6768,13 +6762,13 @@
         <v>2387</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>339</v>
+        <v>106</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -6783,13 +6777,13 @@
         <v>2910</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -6798,13 +6792,13 @@
         <v>5297</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6819,10 +6813,10 @@
         <v>7069</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>22</v>
@@ -6834,13 +6828,13 @@
         <v>8481</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>62</v>
+        <v>352</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -6849,13 +6843,13 @@
         <v>15550</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7040,13 +7034,13 @@
         <v>951</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -7055,13 +7049,13 @@
         <v>951</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7076,13 +7070,13 @@
         <v>4026</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -7106,13 +7100,13 @@
         <v>4026</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>361</v>
+        <v>49</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7127,13 +7121,13 @@
         <v>9950</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -7321,7 +7315,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7369,7 +7363,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>42</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7384,13 +7378,13 @@
         <v>25463</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H41" s="7">
         <v>17</v>
@@ -7399,13 +7393,13 @@
         <v>20267</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M41" s="7">
         <v>43</v>
@@ -7414,13 +7408,13 @@
         <v>45730</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7435,13 +7429,13 @@
         <v>54717</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H42" s="7">
         <v>47</v>
@@ -7450,13 +7444,13 @@
         <v>53792</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M42" s="7">
         <v>92</v>
@@ -7465,13 +7459,13 @@
         <v>108509</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,13 +7495,13 @@
         <v>972</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -7516,13 +7510,13 @@
         <v>972</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7537,13 +7531,13 @@
         <v>953</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -7558,7 +7552,7 @@
         <v>14</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -7567,13 +7561,13 @@
         <v>953</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7629,7 +7623,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7647,7 +7641,7 @@
         <v>14</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -7656,13 +7650,13 @@
         <v>3141</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M46" s="7">
         <v>3</v>
@@ -7671,13 +7665,13 @@
         <v>3141</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7692,13 +7686,13 @@
         <v>2287</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -7713,7 +7707,7 @@
         <v>14</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M47" s="7">
         <v>2</v>
@@ -7722,13 +7716,13 @@
         <v>2287</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7743,13 +7737,13 @@
         <v>59812</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H48" s="7">
         <v>49</v>
@@ -7758,13 +7752,13 @@
         <v>56035</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>113</v>
+        <v>419</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M48" s="7">
         <v>106</v>
@@ -7773,13 +7767,13 @@
         <v>115848</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7800,7 +7794,7 @@
         <v>14</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -7815,7 +7809,7 @@
         <v>14</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -7830,7 +7824,7 @@
         <v>14</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7845,13 +7839,13 @@
         <v>4713</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -7866,7 +7860,7 @@
         <v>14</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M50" s="7">
         <v>4</v>
@@ -7875,13 +7869,13 @@
         <v>4713</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7949,13 +7943,13 @@
         <v>6242</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H52" s="7">
         <v>10</v>
@@ -7964,13 +7958,13 @@
         <v>11357</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="M52" s="7">
         <v>15</v>
@@ -7979,13 +7973,13 @@
         <v>17600</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>95</v>
+        <v>439</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8000,13 +7994,13 @@
         <v>80637</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>103</v>
+        <v>441</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="H53" s="7">
         <v>30</v>
@@ -8015,13 +8009,13 @@
         <v>36513</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>439</v>
+        <v>99</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="M53" s="7">
         <v>110</v>
@@ -8030,13 +8024,13 @@
         <v>117150</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8051,13 +8045,13 @@
         <v>206770</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>248</v>
+        <v>450</v>
       </c>
       <c r="H54" s="7">
         <v>201</v>
@@ -8066,13 +8060,13 @@
         <v>226368</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="M54" s="7">
         <v>386</v>
@@ -8081,13 +8075,13 @@
         <v>433137</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8108,7 +8102,7 @@
         <v>14</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="H55" s="7">
         <v>1</v>
@@ -8117,13 +8111,13 @@
         <v>972</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="M55" s="7">
         <v>1</v>
@@ -8132,13 +8126,13 @@
         <v>972</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8153,13 +8147,13 @@
         <v>5666</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -8174,7 +8168,7 @@
         <v>14</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="M56" s="7">
         <v>5</v>
@@ -8183,13 +8177,13 @@
         <v>5666</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>256</v>
+        <v>466</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8245,7 +8239,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -8269,7 +8263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1371FA8-D41F-41B6-872F-56CDF58B6CD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B430CABA-5211-435A-942D-0387BC442FC9}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8286,7 +8280,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8399,7 +8393,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -8414,7 +8408,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -8423,13 +8417,13 @@
         <v>2054</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8444,13 +8438,13 @@
         <v>4445</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -8459,13 +8453,13 @@
         <v>4006</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -8474,13 +8468,13 @@
         <v>8451</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>292</v>
+        <v>478</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8495,13 +8489,13 @@
         <v>10668</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -8510,13 +8504,13 @@
         <v>17530</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="M6" s="7">
         <v>26</v>
@@ -8525,13 +8519,13 @@
         <v>28198</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8552,7 +8546,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -8567,7 +8561,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>483</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -8603,7 +8597,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8618,7 +8612,7 @@
         <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>483</v>
+        <v>131</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8701,13 +8695,13 @@
         <v>1054</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -8731,13 +8725,13 @@
         <v>1054</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8758,7 +8752,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -8788,7 +8782,7 @@
         <v>14</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>225</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8803,10 +8797,10 @@
         <v>18362</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>22</v>
@@ -8821,7 +8815,7 @@
         <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>38</v>
@@ -8833,10 +8827,10 @@
         <v>41177</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>22</v>
@@ -8860,7 +8854,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -8890,7 +8884,7 @@
         <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8911,7 +8905,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8941,7 +8935,7 @@
         <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9015,7 +9009,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -9024,13 +9018,13 @@
         <v>920</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -9039,13 +9033,13 @@
         <v>919</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9060,13 +9054,13 @@
         <v>9364</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -9075,13 +9069,13 @@
         <v>4571</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>507</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -9090,13 +9084,13 @@
         <v>13935</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9111,13 +9105,13 @@
         <v>19846</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -9126,13 +9120,13 @@
         <v>21077</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>508</v>
+        <v>280</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="M18" s="7">
         <v>43</v>
@@ -9141,13 +9135,13 @@
         <v>40922</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9168,7 +9162,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -9183,7 +9177,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -9198,7 +9192,7 @@
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>229</v>
+        <v>521</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9219,7 +9213,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -9234,7 +9228,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -9249,7 +9243,7 @@
         <v>14</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>229</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9317,13 +9311,13 @@
         <v>55027</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="H22" s="7">
         <v>72</v>
@@ -9332,13 +9326,13 @@
         <v>78783</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="M22" s="7">
         <v>125</v>
@@ -9347,13 +9341,13 @@
         <v>133811</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9368,13 +9362,13 @@
         <v>36583</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>524</v>
+        <v>212</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -9383,13 +9377,13 @@
         <v>24705</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>527</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="M23" s="7">
         <v>58</v>
@@ -9398,13 +9392,13 @@
         <v>61288</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9419,13 +9413,13 @@
         <v>35844</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -9434,13 +9428,13 @@
         <v>30224</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="M24" s="7">
         <v>60</v>
@@ -9449,13 +9443,13 @@
         <v>66069</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9470,13 +9464,13 @@
         <v>2665</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -9491,7 +9485,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>543</v>
+        <v>262</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -9500,13 +9494,13 @@
         <v>2665</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9527,7 +9521,7 @@
         <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>546</v>
+        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -9542,7 +9536,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>543</v>
+        <v>262</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -9557,7 +9551,7 @@
         <v>14</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9646,7 +9640,7 @@
         <v>14</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -9661,7 +9655,7 @@
         <v>14</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>225</v>
+        <v>494</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9676,13 +9670,13 @@
         <v>7540</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>503</v>
+        <v>552</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -9691,13 +9685,13 @@
         <v>7098</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>551</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -9706,13 +9700,13 @@
         <v>14638</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9727,13 +9721,13 @@
         <v>12030</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -9742,13 +9736,13 @@
         <v>8785</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="M30" s="7">
         <v>21</v>
@@ -9757,13 +9751,13 @@
         <v>20816</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9799,7 +9793,7 @@
         <v>14</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -9814,7 +9808,7 @@
         <v>14</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>225</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9850,7 +9844,7 @@
         <v>14</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9865,7 +9859,7 @@
         <v>14</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>225</v>
+        <v>494</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9933,13 +9927,13 @@
         <v>1912</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>236</v>
+        <v>569</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -9948,13 +9942,13 @@
         <v>1194</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -9963,13 +9957,13 @@
         <v>3106</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>568</v>
+        <v>414</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9984,13 +9978,13 @@
         <v>6107</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -9999,13 +9993,13 @@
         <v>1793</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="M35" s="7">
         <v>8</v>
@@ -10014,13 +10008,13 @@
         <v>7900</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10035,13 +10029,13 @@
         <v>13178</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
@@ -10050,13 +10044,13 @@
         <v>28323</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="M36" s="7">
         <v>40</v>
@@ -10065,13 +10059,13 @@
         <v>41500</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10092,7 +10086,7 @@
         <v>14</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>483</v>
+        <v>131</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -10107,7 +10101,7 @@
         <v>14</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -10143,7 +10137,7 @@
         <v>14</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>483</v>
+        <v>131</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -10158,7 +10152,7 @@
         <v>14</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -10229,7 +10223,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -10241,13 +10235,13 @@
         <v>14430</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>151</v>
+        <v>592</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="H40" s="7">
         <v>15</v>
@@ -10256,13 +10250,13 @@
         <v>15974</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="M40" s="7">
         <v>28</v>
@@ -10271,13 +10265,13 @@
         <v>30404</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>44</v>
+        <v>599</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10292,13 +10286,13 @@
         <v>47773</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>596</v>
+        <v>248</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="H41" s="7">
         <v>41</v>
@@ -10307,13 +10301,13 @@
         <v>42414</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="M41" s="7">
         <v>84</v>
@@ -10322,13 +10316,13 @@
         <v>90187</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10343,13 +10337,13 @@
         <v>90214</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="H42" s="7">
         <v>89</v>
@@ -10358,13 +10352,13 @@
         <v>94498</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>273</v>
+        <v>613</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="M42" s="7">
         <v>169</v>
@@ -10373,13 +10367,13 @@
         <v>184712</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>293</v>
+        <v>616</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10394,13 +10388,13 @@
         <v>1072</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>493</v>
+        <v>235</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -10415,7 +10409,7 @@
         <v>14</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -10424,13 +10418,13 @@
         <v>1072</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10451,7 +10445,7 @@
         <v>14</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -10466,7 +10460,7 @@
         <v>14</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -10481,7 +10475,7 @@
         <v>14</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>457</v>
+        <v>621</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10537,7 +10531,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -10549,13 +10543,13 @@
         <v>1963</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -10564,13 +10558,13 @@
         <v>1039</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="M46" s="7">
         <v>3</v>
@@ -10579,13 +10573,13 @@
         <v>3003</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>619</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10600,13 +10594,13 @@
         <v>63587</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>622</v>
+        <v>554</v>
       </c>
       <c r="H47" s="7">
         <v>71</v>
@@ -10615,13 +10609,13 @@
         <v>81619</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="M47" s="7">
         <v>131</v>
@@ -10630,13 +10624,13 @@
         <v>145206</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10651,13 +10645,13 @@
         <v>56524</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>630</v>
+        <v>511</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="H48" s="7">
         <v>69</v>
@@ -10666,13 +10660,13 @@
         <v>74966</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>633</v>
+        <v>479</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="M48" s="7">
         <v>123</v>
@@ -10681,13 +10675,13 @@
         <v>131491</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -10708,7 +10702,7 @@
         <v>14</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
@@ -10717,13 +10711,13 @@
         <v>996</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>263</v>
+        <v>643</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>639</v>
+        <v>437</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -10732,13 +10726,13 @@
         <v>996</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>640</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -10759,7 +10753,7 @@
         <v>14</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -10774,7 +10768,7 @@
         <v>14</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -10789,7 +10783,7 @@
         <v>14</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>642</v>
+        <v>408</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10857,13 +10851,13 @@
         <v>75424</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H52" s="7">
         <v>91</v>
@@ -10872,13 +10866,13 @@
         <v>98928</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="M52" s="7">
         <v>163</v>
@@ -10887,13 +10881,13 @@
         <v>174352</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>651</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -10908,13 +10902,13 @@
         <v>175399</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H53" s="7">
         <v>153</v>
@@ -10923,13 +10917,13 @@
         <v>166206</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="M53" s="7">
         <v>319</v>
@@ -10938,13 +10932,13 @@
         <v>341605</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>660</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -11031,7 +11025,7 @@
         <v>12</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>673</v>
+        <v>464</v>
       </c>
       <c r="M55" s="7">
         <v>4</v>
@@ -11040,13 +11034,13 @@
         <v>4733</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="P55" s="7" t="s">
-        <v>675</v>
-      </c>
       <c r="Q55" s="7" t="s">
-        <v>676</v>
+        <v>625</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -11067,37 +11061,37 @@
         <v>14</v>
       </c>
       <c r="G56" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="M56" s="7">
+        <v>0</v>
+      </c>
+      <c r="N56" s="7">
+        <v>0</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>677</v>
-      </c>
-      <c r="H56" s="7">
-        <v>0</v>
-      </c>
-      <c r="I56" s="7">
-        <v>0</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="M56" s="7">
-        <v>0</v>
-      </c>
-      <c r="N56" s="7">
-        <v>0</v>
-      </c>
-      <c r="O56" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -11153,7 +11147,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
